--- a/Datasets/tobacco_data_v2.xlsx
+++ b/Datasets/tobacco_data_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb178739a57d440d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjun\OneDrive\Desktop\Documents\ANU\COMP4550\vaping_effect\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{9C155D04-E320-4838-A1D3-802802FA10E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBAE73F7-3319-41DD-974D-E779D6653A9E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A98D4E-D28A-4B12-9487-8B8F75B53619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6049EA67-DD7E-451A-8247-36CF987127C2}"/>
   </bookViews>
@@ -38,10 +38,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F4B35BDA-9726-4CF5-90E5-05047BF9930C}</author>
+    <author>tc={FCE47705-B63C-4D9A-A2AE-3CA65DBC3E86}</author>
+    <author>tc={B4DD4E50-0523-4116-94FE-2620DE0BA2D2}</author>
+    <author>tc={CDDA1174-B538-4869-990B-1DC60C74D5EE}</author>
+    <author>tc={37204D53-792E-4C98-9226-76119DB5D8E2}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F4B35BDA-9726-4CF5-90E5-05047BF9930C}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FCE47705-B63C-4D9A-A2AE-3CA65DBC3E86}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,12 +59,44 @@
     To Consider: Smoking Prevalence by Age, Remove samples that don't segregate by age (those are weak sources anyways)</t>
       </text>
     </comment>
+    <comment ref="A24" authorId="1" shapeId="0" xr:uid="{B4DD4E50-0523-4116-94FE-2620DE0BA2D2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add that when duplicating record, scaling not used</t>
+      </text>
+    </comment>
+    <comment ref="A49" authorId="2" shapeId="0" xr:uid="{CDDA1174-B538-4869-990B-1DC60C74D5EE}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Male and Female about the same. Median age 38. 
+https://www.stats.govt.nz/topics/population
+Maori 17.3% 
+https://www.stats.govt.nz/information-releases/maori-population-estimates-at-30-june-2023/
+</t>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="3" shapeId="0" xr:uid="{37204D53-792E-4C98-9226-76119DB5D8E2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Male and Female about the same. Median age 38. 
+https://www.stats.govt.nz/topics/population
+Maori 17.3% 
+https://www.stats.govt.nz/information-releases/maori-population-estimates-at-30-june-2023/
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="73">
   <si>
     <t>Intervention descriptor (data entry)</t>
   </si>
@@ -201,15 +236,6 @@
     <t>89</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>28.1</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Weak</t>
   </si>
   <si>
@@ -219,9 +245,6 @@
     <t>96</t>
   </si>
   <si>
-    <t>4.7</t>
-  </si>
-  <si>
     <t>Ongoing tobacco tax increases (10% annually from 2011 to 2025)</t>
   </si>
   <si>
@@ -231,18 +254,12 @@
     <t>94</t>
   </si>
   <si>
-    <t>4.9</t>
-  </si>
-  <si>
     <t>Reducing the total number of tobacco retail outlets by 95% by law</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>Restricting tobacco sales to only pharmacies combined with annual cessation advice from pharmacist</t>
   </si>
   <si>
@@ -273,15 +290,9 @@
     <t>Substantive tobacco retail  outlet reduction strategy (reducing the total number of outlets until 18 left in 2025)</t>
   </si>
   <si>
-    <t>99.6</t>
-  </si>
-  <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
     <t>26.5</t>
   </si>
   <si>
@@ -291,16 +302,19 @@
     <t>Tax increased by 20% per year until 2025, tobacco retail outlets reduced by 95% and tobacco-free generation strategy implemented</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
     <t>Tobacco-free generation (law change prohibiting tobacco sale and supply to individuals born from 1993 onwards)</t>
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values for Rows 3 to 22 from van der Deen (2018) Figure 2 </t>
   </si>
 </sst>
 </file>
@@ -354,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -372,6 +386,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -714,28 +731,59 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F1" dT="2024-09-03T10:00:07.72" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{F4B35BDA-9726-4CF5-90E5-05047BF9930C}">
+  <threadedComment ref="F1" dT="2024-09-03T10:00:07.72" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{FCE47705-B63C-4D9A-A2AE-3CA65DBC3E86}">
     <text>Table 1 shows that initiation of smoking (changing from never to current smoker) between 2004/05 and 2008/09 was 14.2% for those aged 15–17 years, 7.0% for 18–19 years, 3.1% for 20–24 years, and 1.4% for 25–34 years; with low initiation (&lt;1.0%) among older age groups.
 https://www.sciencedirect.com/science/article/pii/S1326020023008208</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2024-09-03T10:03:36.61" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{4A6C8DF0-EB4C-449B-A623-08D1A029C81C}" parentId="{F4B35BDA-9726-4CF5-90E5-05047BF9930C}">
+  <threadedComment ref="F1" dT="2024-09-03T10:03:36.61" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{9F277296-6592-4E01-A632-4A0652DE905B}" parentId="{FCE47705-B63C-4D9A-A2AE-3CA65DBC3E86}">
     <text>Average of 8.1% for those aged 15-24. Values in smoking uptake based on values for those aged 20 years old</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2024-09-03T10:04:53.89" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{BF4A6ABC-648A-451C-AD96-C49321D86BE2}" parentId="{F4B35BDA-9726-4CF5-90E5-05047BF9930C}">
+  <threadedComment ref="F1" dT="2024-09-03T10:04:53.89" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{F6034F82-12E1-48C4-B136-C54C19414902}" parentId="{FCE47705-B63C-4D9A-A2AE-3CA65DBC3E86}">
     <text>Those 25-44 assumed to have 5.8 times lower smoking uptake and those 45-65 and 65+ assumed to have 8.1 times lower smoking uptake</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2024-09-03T10:11:44.63" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{1D76FCD5-9FD4-4A6B-BF5B-EE5DE8A3A30D}" parentId="{F4B35BDA-9726-4CF5-90E5-05047BF9930C}">
+  <threadedComment ref="F1" dT="2024-09-03T10:11:44.63" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{C5C0B57B-134C-4B4C-A492-65D8512BA505}" parentId="{FCE47705-B63C-4D9A-A2AE-3CA65DBC3E86}">
     <text>To Consider: Smoking Prevalence by Age, Remove samples that don't segregate by age (those are weak sources anyways)</text>
+  </threadedComment>
+  <threadedComment ref="A24" dT="2024-11-25T23:19:15.28" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{B4DD4E50-0523-4116-94FE-2620DE0BA2D2}">
+    <text>Add that when duplicating record, scaling not used</text>
+  </threadedComment>
+  <threadedComment ref="A49" dT="2024-11-25T23:17:07.80" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{CDDA1174-B538-4869-990B-1DC60C74D5EE}">
+    <text xml:space="preserve">Male and Female about the same. Median age 38. 
+https://www.stats.govt.nz/topics/population
+Maori 17.3% 
+https://www.stats.govt.nz/information-releases/maori-population-estimates-at-30-june-2023/
+</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3666455213</xltc2:checksum>
+        <xltc2:hyperlink startIndex="48" length="43" url="https://www.stats.govt.nz/topics/population"/>
+        <xltc2:hyperlink startIndex="106" length="90" url="https://www.stats.govt.nz/information-releases/maori-population-estimates-at-30-june-2023/"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="A50" dT="2024-11-25T23:17:07.80" personId="{3B78702E-8220-4042-B3ED-C181129BB66B}" id="{37204D53-792E-4C98-9226-76119DB5D8E2}">
+    <text xml:space="preserve">Male and Female about the same. Median age 38. 
+https://www.stats.govt.nz/topics/population
+Maori 17.3% 
+https://www.stats.govt.nz/information-releases/maori-population-estimates-at-30-june-2023/
+</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3666455213</xltc2:checksum>
+        <xltc2:hyperlink startIndex="48" length="43" url="https://www.stats.govt.nz/topics/population"/>
+        <xltc2:hyperlink startIndex="106" length="90" url="https://www.stats.govt.nz/information-releases/maori-population-estimates-at-30-june-2023/"/>
+      </x:ext>
+    </extLst>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6FBDBE-EF5D-4EFE-AAC8-A0D62986DC39}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -746,14 +794,15 @@
     <col min="4" max="4" width="49.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7265625" style="2"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" style="2"/>
+    <col min="9" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -793,8 +842,11 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -834,8 +886,11 @@
       <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -851,8 +906,8 @@
       <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1">
-        <v>-14.2</v>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>31</v>
@@ -873,16 +928,19 @@
       <c r="M3" s="5">
         <v>-1284765.0967248781</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N3" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
+      <c r="C4" s="1">
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>29</v>
@@ -890,8 +948,8 @@
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1">
-        <v>-14.2</v>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>34</v>
@@ -913,7 +971,7 @@
         <v>-1270055.9876751963</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -929,8 +987,8 @@
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1">
-        <v>-2.4500000000000002</v>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>35</v>
@@ -952,7 +1010,7 @@
         <v>-318700.52431376581</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -968,8 +1026,8 @@
       <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1">
-        <v>-1.75</v>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>37</v>
@@ -991,7 +1049,7 @@
         <v>-119003.65218104969</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -1007,8 +1065,8 @@
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1">
-        <v>-1.75</v>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>39</v>
@@ -1030,7 +1088,7 @@
         <v>-9656.6946513736148</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1046,8 +1104,8 @@
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
-        <v>-12.8</v>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>31</v>
@@ -1069,7 +1127,7 @@
         <v>-954351.72030391009</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1085,8 +1143,8 @@
       <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="1">
-        <v>-12.8</v>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>34</v>
@@ -1108,7 +1166,7 @@
         <v>-908360.1286173634</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1124,8 +1182,8 @@
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="1">
-        <v>-2.21</v>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>35</v>
@@ -1147,7 +1205,7 @@
         <v>-217353.33501523413</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1163,8 +1221,8 @@
       <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="1">
-        <v>-1.58</v>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
@@ -1186,7 +1244,7 @@
         <v>-84592.382751022975</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1202,8 +1260,8 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1">
-        <v>-1.58</v>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>39</v>
@@ -1225,7 +1283,7 @@
         <v>-6408.3408041969651</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1241,8 +1299,8 @@
       <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1">
-        <v>26.5</v>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>31</v>
@@ -1264,7 +1322,7 @@
         <v>-2472480.948348857</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1280,8 +1338,8 @@
       <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="1">
-        <v>26.5</v>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>34</v>
@@ -1303,7 +1361,7 @@
         <v>-2561728.3950617285</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1319,8 +1377,8 @@
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="1">
-        <v>4.57</v>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>35</v>
@@ -1342,7 +1400,7 @@
         <v>-665394.40203562344</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1416,8 @@
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="1">
-        <v>3.27</v>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>37</v>
@@ -1381,7 +1439,7 @@
         <v>-220072.99270072993</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1397,8 +1455,8 @@
       <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="1">
-        <v>3.27</v>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>39</v>
@@ -1420,7 +1478,7 @@
         <v>-15068.493150684932</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -1436,8 +1494,8 @@
       <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="1">
-        <v>28.5</v>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>31</v>
@@ -1459,7 +1517,7 @@
         <v>-1971580.8170515099</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
@@ -1475,8 +1533,8 @@
       <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="1">
-        <v>28.5</v>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>34</v>
@@ -1498,7 +1556,7 @@
         <v>-1993620.4146730462</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1514,8 +1572,8 @@
       <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="1">
-        <v>5.09</v>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>35</v>
@@ -1537,7 +1595,7 @@
         <v>-494949.49494949495</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1553,8 +1611,8 @@
       <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="1">
-        <v>3.52</v>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>37</v>
@@ -1576,7 +1634,7 @@
         <v>-173127.0358306189</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1592,8 +1650,8 @@
       <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="1">
-        <v>3.52</v>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>39</v>
@@ -1615,7 +1673,7 @@
         <v>-13142.857142857143</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1625,29 +1683,29 @@
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="L23" s="5">
         <v>1.4943310657596371</v>
@@ -1655,69 +1713,71 @@
       <c r="M23" s="5">
         <v>-29705.215419501135</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.2</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1.4943310657596371</v>
+      </c>
+      <c r="M24" s="5">
+        <v>-29705.215419501135</v>
+      </c>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="5">
-        <v>4.0816326530612246</v>
-      </c>
-      <c r="M24" s="5">
-        <v>-80952.380952380947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
       <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F25" s="1">
         <v>14.2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>32</v>
@@ -1728,38 +1788,40 @@
       <c r="J25" s="1">
         <v>0.03</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="L25" s="5">
-        <v>12.053860175221967</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="M25" s="5">
-        <v>-379255.60063503264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>-80952.380952380947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F26" s="1">
-        <v>14.2</v>
+        <v>12.8</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>33</v>
@@ -1767,17 +1829,19 @@
       <c r="J26" s="1">
         <v>0.03</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="L26" s="5">
-        <v>14.203584714237403</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="M26" s="5">
-        <v>-420846.95449592307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>-80952.380952380947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
@@ -1792,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>2.4500000000000002</v>
+        <v>14.2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>32</v>
@@ -1808,15 +1872,15 @@
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="5">
-        <v>10.856379150817313</v>
+        <v>12.053860175221967</v>
       </c>
       <c r="M27" s="5">
-        <v>-261128.81669579522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>-379255.60063503264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -1825,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>1.75</v>
+        <v>14.2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -1847,15 +1911,15 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="5">
-        <v>5.9296647379867862</v>
+        <v>14.203584714237403</v>
       </c>
       <c r="M28" s="5">
-        <v>-98485.781115351478</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>-420846.95449592307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
@@ -1864,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>1.75</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>32</v>
@@ -1886,15 +1950,15 @@
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="5">
-        <v>0.90654684482282921</v>
+        <v>10.856379150817313</v>
       </c>
       <c r="M29" s="5">
-        <v>-7607.110480469828</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>-261128.81669579522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -1903,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>12.8</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>33</v>
@@ -1925,15 +1989,15 @@
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="5">
-        <v>10.74803879177219</v>
+        <v>5.9296647379867862</v>
       </c>
       <c r="M30" s="5">
-        <v>-284143.55426524184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>-98485.781115351478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
@@ -1942,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>33</v>
@@ -1964,15 +2028,15 @@
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="5">
-        <v>11.495176848874598</v>
+        <v>0.90654684482282921</v>
       </c>
       <c r="M31" s="5">
-        <v>-293408.36012861738</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>-7607.110480469828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>27</v>
@@ -1987,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>2.21</v>
+        <v>12.8</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>40</v>
@@ -2003,15 +2067,15 @@
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="5">
-        <v>8.2865958974558023</v>
+        <v>10.74803879177219</v>
       </c>
       <c r="M32" s="5">
-        <v>-178540.23947679947</v>
+        <v>-284143.55426524184</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>27</v>
@@ -2020,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>1.58</v>
+        <v>12.8</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>40</v>
@@ -2042,15 +2106,15 @@
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="5">
-        <v>4.9968523764557755</v>
+        <v>11.495176848874598</v>
       </c>
       <c r="M33" s="5">
-        <v>-68854.265029902424</v>
+        <v>-293408.36012861738</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>27</v>
@@ -2059,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>40</v>
@@ -2081,15 +2145,15 @@
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="5">
-        <v>0.83009595909287115</v>
+        <v>8.2865958974558023</v>
       </c>
       <c r="M34" s="5">
-        <v>-5080.1872696483715</v>
+        <v>-178540.23947679947</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>27</v>
@@ -2098,37 +2162,37 @@
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>26.5</v>
+        <v>1.6</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J35" s="1">
         <v>0.03</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="5">
-        <v>34.546994072819643</v>
+        <v>4.9968523764557755</v>
       </c>
       <c r="M35" s="5">
-        <v>-838272.65029635897</v>
+        <v>-68854.265029902424</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>27</v>
@@ -2137,37 +2201,37 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J36" s="1">
         <v>0.03</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="5">
-        <v>39.197530864197532</v>
+        <v>0.83009595909287115</v>
       </c>
       <c r="M36" s="5">
-        <v>-895061.72839506168</v>
+        <v>-5080.1872696483715</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>27</v>
@@ -2182,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>4.57</v>
+        <v>26.5</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>32</v>
@@ -2198,15 +2262,15 @@
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="5">
-        <v>28.244274809160306</v>
+        <v>34.546994072819643</v>
       </c>
       <c r="M37" s="5">
-        <v>-534351.14503816795</v>
+        <v>-838272.65029635897</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>27</v>
@@ -2215,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>3.27</v>
+        <v>26.5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -2237,15 +2301,15 @@
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="5">
-        <v>12.773722627737227</v>
+        <v>39.197530864197532</v>
       </c>
       <c r="M38" s="5">
-        <v>-177007.29927007298</v>
+        <v>-895061.72839506168</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
@@ -2254,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
@@ -2276,15 +2340,15 @@
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="5">
-        <v>1.3013698630136987</v>
+        <v>28.244274809160306</v>
       </c>
       <c r="M39" s="5">
-        <v>-10958.904109589041</v>
+        <v>-534351.14503816795</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>27</v>
@@ -2293,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>28.5</v>
+        <v>3.31</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>42</v>
@@ -2315,15 +2379,15 @@
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="5">
-        <v>50.53285968028419</v>
+        <v>12.773722627737227</v>
       </c>
       <c r="M40" s="5">
-        <v>-674955.59502664302</v>
+        <v>-177007.29927007298</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>27</v>
@@ -2332,19 +2396,19 @@
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>42</v>
@@ -2354,15 +2418,15 @@
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="5">
-        <v>55.82137161084529</v>
+        <v>1.3013698630136987</v>
       </c>
       <c r="M41" s="5">
-        <v>-701754.38596491225</v>
+        <v>-10958.904109589041</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>27</v>
@@ -2377,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>5.09</v>
+        <v>28.5</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>40</v>
@@ -2393,15 +2457,15 @@
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="5">
-        <v>39.506172839506171</v>
+        <v>50.53285968028419</v>
       </c>
       <c r="M42" s="5">
-        <v>-404040.40404040401</v>
+        <v>-674955.59502664302</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>27</v>
@@ -2410,16 +2474,16 @@
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>3.52</v>
+        <v>28.5</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>40</v>
@@ -2432,15 +2496,15 @@
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="5">
-        <v>19.543973941368076</v>
+        <v>55.82137161084529</v>
       </c>
       <c r="M43" s="5">
-        <v>-139576.54723127035</v>
+        <v>-701754.38596491225</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>27</v>
@@ -2449,16 +2513,16 @@
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>3.52</v>
+        <v>3.57</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>40</v>
@@ -2471,235 +2535,237 @@
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="5">
-        <v>2.4571428571428569</v>
+        <v>39.506172839506171</v>
       </c>
       <c r="M44" s="5">
-        <v>-9714.2857142857138</v>
+        <v>-404040.40404040401</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3.57</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J45" s="1">
         <v>0.03</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="K45" s="3"/>
       <c r="L45" s="5">
-        <v>6.0090702947845802</v>
+        <v>19.543973941368076</v>
       </c>
       <c r="M45" s="5">
-        <v>-119047.61904761905</v>
+        <v>-139576.54723127035</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J46" s="1">
         <v>0.03</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="K46" s="3"/>
       <c r="L46" s="5">
+        <v>2.4571428571428569</v>
+      </c>
+      <c r="M46" s="5">
+        <v>-9714.2857142857138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" s="5">
+        <v>6.0090702947845802</v>
+      </c>
+      <c r="M47" s="5">
+        <v>-119047.61904761905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L48" s="5">
+        <v>6.0090702947845802</v>
+      </c>
+      <c r="M48" s="5">
+        <v>-119047.61904761905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" s="5">
         <v>1.8231292517006803</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M49" s="5">
         <v>-36507.936507936509</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="5">
-        <v>7.0757182256028424</v>
-      </c>
-      <c r="M47" s="5">
-        <v>-148482.87488575664</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="5">
-        <v>22.693562741026401</v>
-      </c>
-      <c r="M48" s="5">
-        <v>-321862.94867991697</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="5">
-        <v>39.983536190980182</v>
-      </c>
-      <c r="M49" s="5">
-        <v>-1246545.5400717352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>30</v>
+        <v>30</v>
+      </c>
+      <c r="F50" s="1">
+        <v>12.8</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>33</v>
@@ -2707,32 +2773,34 @@
       <c r="J50" s="1">
         <v>0.03</v>
       </c>
-      <c r="K50" s="3"/>
+      <c r="K50" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="L50" s="5">
-        <v>69.139142524330225</v>
+        <v>1.8231292517006803</v>
       </c>
       <c r="M50" s="5">
-        <v>-1983992.7854807801</v>
+        <v>-36507.936507936509</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>14.2</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>35</v>
@@ -2741,139 +2809,139 @@
         <v>32</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="J51" s="1">
         <v>0.03</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="5">
-        <v>93.759638120694973</v>
+        <v>7.0757182256028424</v>
       </c>
       <c r="M51" s="5">
-        <v>-2138377.711524622</v>
+        <v>-148482.87488575664</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>12.8</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="J52" s="1">
         <v>0.03</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="5">
-        <v>40.830563420739466</v>
+        <v>7.0757182256028424</v>
       </c>
       <c r="M52" s="5">
-        <v>-634002.21593007515</v>
+        <v>-148482.87488575664</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>26.5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J53" s="1">
         <v>0.03</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="5">
-        <v>2.6013952938394231</v>
+        <v>22.693562741026401</v>
       </c>
       <c r="M53" s="5">
-        <v>-13558.78759213275</v>
+        <v>-321862.94867991697</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>28.5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J54" s="1">
         <v>0.03</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="5">
-        <v>35.209092593736486</v>
+        <v>22.693562741026401</v>
       </c>
       <c r="M54" s="5">
-        <v>-923466.55136203591</v>
+        <v>-321862.94867991697</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>30</v>
@@ -2882,19 +2950,19 @@
         <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>33</v>
@@ -2904,15 +2972,15 @@
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="5">
-        <v>53.858520900321544</v>
+        <v>39.983536190980182</v>
       </c>
       <c r="M55" s="5">
-        <v>-1346463.0225080387</v>
+        <v>-1246545.5400717352</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>30</v>
@@ -2921,19 +2989,19 @@
         <v>30</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>33</v>
@@ -2943,15 +3011,15 @@
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="5">
-        <v>69.475441013798061</v>
+        <v>69.139142524330225</v>
       </c>
       <c r="M56" s="5">
-        <v>-1399212.0941605698</v>
+        <v>-1983992.7854807801</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>30</v>
@@ -2960,19 +3028,19 @@
         <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>33</v>
@@ -2982,15 +3050,15 @@
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="5">
-        <v>34.623858986465216</v>
+        <v>93.759638120694973</v>
       </c>
       <c r="M57" s="5">
-        <v>-442634.56090651557</v>
+        <v>-2138377.711524622</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>30</v>
@@ -2999,19 +3067,19 @@
         <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>33</v>
@@ -3021,15 +3089,15 @@
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="5">
-        <v>3.054753129461766</v>
+        <v>40.830563420739466</v>
       </c>
       <c r="M58" s="5">
-        <v>-10093.966862569314</v>
+        <v>-634002.21593007515</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>30</v>
@@ -3038,37 +3106,37 @@
         <v>30</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J59" s="1">
         <v>0.03</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="5">
-        <v>99.915325994919556</v>
+        <v>2.6013952938394231</v>
       </c>
       <c r="M59" s="5">
-        <v>-2413209.1447925488</v>
+        <v>-13558.78759213275</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>30</v>
@@ -3077,37 +3145,37 @@
         <v>30</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J60" s="1">
         <v>0.03</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="5">
-        <v>163.58024691358025</v>
+        <v>35.209092593736486</v>
       </c>
       <c r="M60" s="5">
-        <v>-3657407.4074074072</v>
+        <v>-923466.55136203591</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>30</v>
@@ -3116,37 +3184,37 @@
         <v>30</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J61" s="1">
         <v>0.03</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="5">
-        <v>202.29007633587787</v>
+        <v>53.858520900321544</v>
       </c>
       <c r="M61" s="5">
-        <v>-3715012.7226463105</v>
+        <v>-1346463.0225080387</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>30</v>
@@ -3155,37 +3223,37 @@
         <v>30</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J62" s="1">
         <v>0.03</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="5">
-        <v>69.708029197080293</v>
+        <v>69.475441013798061</v>
       </c>
       <c r="M62" s="5">
-        <v>-930656.9343065694</v>
+        <v>-1399212.0941605698</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>30</v>
@@ -3194,37 +3262,37 @@
         <v>30</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J63" s="1">
         <v>0.03</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="5">
-        <v>1.5753424657534247</v>
+        <v>34.623858986465216</v>
       </c>
       <c r="M63" s="5">
-        <v>-6849.3150684931506</v>
+        <v>-442634.56090651557</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>30</v>
@@ -3233,37 +3301,37 @@
         <v>30</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J64" s="1">
         <v>0.03</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="5">
-        <v>145.64831261101244</v>
+        <v>3.054753129461766</v>
       </c>
       <c r="M64" s="5">
-        <v>-1918294.8490230907</v>
+        <v>-10093.966862569314</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>30</v>
@@ -3272,19 +3340,19 @@
         <v>30</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>42</v>
@@ -3294,15 +3362,15 @@
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="5">
-        <v>231.25996810207337</v>
+        <v>99.915325994919556</v>
       </c>
       <c r="M65" s="5">
-        <v>-2822966.5071770335</v>
+        <v>-2413209.1447925488</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>30</v>
@@ -3311,19 +3379,19 @@
         <v>30</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>42</v>
@@ -3333,15 +3401,15 @@
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="5">
-        <v>277.21661054994388</v>
+        <v>163.58024691358025</v>
       </c>
       <c r="M66" s="5">
-        <v>-2648709.3153759819</v>
+        <v>-3657407.4074074072</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>30</v>
@@ -3350,19 +3418,19 @@
         <v>30</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>42</v>
@@ -3372,15 +3440,15 @@
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="5">
-        <v>108.79478827361564</v>
+        <v>202.29007633587787</v>
       </c>
       <c r="M67" s="5">
-        <v>-732899.02280130296</v>
+        <v>-3715012.7226463105</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>30</v>
@@ -3389,19 +3457,19 @@
         <v>30</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>42</v>
@@ -3411,270 +3479,270 @@
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="5">
-        <v>6.8</v>
+        <v>69.708029197080293</v>
       </c>
       <c r="M68" s="5">
-        <v>-16571.428571428572</v>
+        <v>-930656.9343065694</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" s="1">
-        <v>14.2</v>
+        <v>58</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J69" s="1">
         <v>0.03</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="5">
-        <v>7.1441171282413123</v>
+        <v>1.5753424657534247</v>
       </c>
       <c r="M69" s="5">
-        <v>-226377.37402246133</v>
+        <v>-6849.3150684931506</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="1">
-        <v>14.2</v>
+        <v>58</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J70" s="1">
         <v>0.03</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="5">
-        <v>7.5902754293014691</v>
+        <v>145.64831261101244</v>
       </c>
       <c r="M70" s="5">
-        <v>-221696.16352910231</v>
+        <v>-1918294.8490230907</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="1">
-        <v>2.4500000000000002</v>
+        <v>58</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J71" s="1">
         <v>0.03</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="5">
-        <v>5.6749254651999594</v>
+        <v>231.25996810207337</v>
       </c>
       <c r="M71" s="5">
-        <v>-131592.47455536138</v>
+        <v>-2822966.5071770335</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1.75</v>
+        <v>58</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J72" s="1">
         <v>0.03</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="5">
-        <v>2.7288768517378639</v>
+        <v>277.21661054994388</v>
       </c>
       <c r="M72" s="5">
-        <v>-43087.529237966271</v>
+        <v>-2648709.3153759819</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1.75</v>
+        <v>58</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J73" s="1">
         <v>0.03</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="5">
-        <v>0.36656024595010051</v>
+        <v>108.79478827361564</v>
       </c>
       <c r="M73" s="5">
-        <v>-3074.3762563556816</v>
+        <v>-732899.02280130296</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="1">
-        <v>12.8</v>
+        <v>58</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J74" s="1">
         <v>0.03</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="5">
-        <v>6.3005744641423194</v>
+        <v>6.8</v>
       </c>
       <c r="M74" s="5">
-        <v>-166779.9122861202</v>
+        <v>-16571.428571428572</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>70</v>
+      <c r="C75" s="1">
+        <v>99.7</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>33</v>
@@ -3684,36 +3752,36 @@
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="5">
-        <v>6.069131832797428</v>
+        <v>7.1441171282413123</v>
       </c>
       <c r="M75" s="5">
-        <v>-152733.11897106111</v>
+        <v>-226377.37402246133</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>70</v>
+      <c r="C76" s="1">
+        <v>99.7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F76" s="1">
-        <v>2.21</v>
+        <v>14.2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>33</v>
@@ -3723,36 +3791,36 @@
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="5">
-        <v>4.269440509227814</v>
+        <v>7.5902754293014691</v>
       </c>
       <c r="M76" s="5">
-        <v>-89270.119738399735</v>
+        <v>-221696.16352910231</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>70</v>
+      <c r="C77" s="1">
+        <v>99.7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F77" s="1">
-        <v>1.58</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>33</v>
@@ -3762,36 +3830,36 @@
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="5">
-        <v>2.3016997167138808</v>
+        <v>5.6749254651999594</v>
       </c>
       <c r="M77" s="5">
-        <v>-31476.235442241108</v>
+        <v>-131592.47455536138</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>71</v>
+      <c r="C78" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.2</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F78" s="1">
-        <v>1.58</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>33</v>
@@ -3801,69 +3869,69 @@
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="5">
-        <v>0.34199953514626291</v>
+        <v>2.7288768517378639</v>
       </c>
       <c r="M78" s="5">
-        <v>-1992.2303018228906</v>
+        <v>-43087.529237966271</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>72</v>
+      <c r="C79" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.1</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>73</v>
+      <c r="F79" s="1">
+        <v>0</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J79" s="1">
         <v>0.03</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="5">
-        <v>21.083827265029637</v>
+        <v>0.36656024595010051</v>
       </c>
       <c r="M79" s="5">
-        <v>-516511.43099068588</v>
+        <v>-3074.3762563556816</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>70</v>
+      <c r="C80" s="1">
+        <v>99.7</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>74</v>
+      <c r="F80" s="1">
+        <v>12.8</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>31</v>
@@ -3872,37 +3940,37 @@
         <v>40</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J80" s="1">
         <v>0.03</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="5">
-        <v>30.728241563055061</v>
+        <v>6.3005744641423194</v>
       </c>
       <c r="M80" s="5">
-        <v>-408525.75488454709</v>
+        <v>-166779.9122861202</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>70</v>
+      <c r="C81" s="1">
+        <v>99.7</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>74</v>
+      <c r="F81" s="1">
+        <v>12.8</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>34</v>
@@ -3911,43 +3979,43 @@
         <v>40</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J81" s="1">
         <v>0.03</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="5">
-        <v>0.30303030303030304</v>
+        <v>6.069131832797428</v>
       </c>
       <c r="M81" s="5">
-        <v>-1275.9170653907497</v>
+        <v>-152733.11897106111</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B82" s="1">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C82" s="1">
-        <v>95</v>
+        <v>99.7</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>33</v>
@@ -3957,36 +4025,36 @@
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="5">
-        <v>40.277532780619744</v>
+        <v>4.269440509227814</v>
       </c>
       <c r="M82" s="5">
-        <v>1270065.2672429001</v>
+        <v>-89270.119738399735</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="1">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C83" s="1">
-        <v>95</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>76</v>
+        <v>99.7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.2</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F83" s="1">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>33</v>
@@ -3996,24 +4064,24 @@
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="5">
-        <v>46.218013752677265</v>
+        <v>2.3016997167138808</v>
       </c>
       <c r="M83" s="5">
-        <v>1623266.8244842745</v>
+        <v>-31476.235442241108</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B84" s="1">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C84" s="1">
-        <v>95</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>76</v>
+        <v>99.7</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.1</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>30</v>
@@ -4022,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>33</v>
@@ -4035,132 +4103,132 @@
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="5">
-        <v>21.178163873753469</v>
+        <v>0.34199953514626291</v>
       </c>
       <c r="M84" s="5">
-        <v>511976.97131695284</v>
+        <v>-1992.2303018228906</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="1">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C85" s="1">
-        <v>95</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>76</v>
+        <v>99.7</v>
+      </c>
+      <c r="D85" s="1">
+        <v>4</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="1">
-        <v>0</v>
+      <c r="F85" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J85" s="1">
         <v>0.03</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="5">
-        <v>11.797775862776479</v>
+        <v>21.083827265029637</v>
       </c>
       <c r="M85" s="5">
-        <v>194919.7751241331</v>
+        <v>-516511.43099068588</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B86" s="1">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C86" s="1">
-        <v>95</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>76</v>
+        <v>99.7</v>
+      </c>
+      <c r="D86" s="1">
+        <v>4</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F86" s="1">
-        <v>0</v>
+      <c r="F86" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J86" s="1">
         <v>0.03</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="5">
-        <v>1.7933861495408143</v>
+        <v>30.728241563055061</v>
       </c>
       <c r="M86" s="5">
-        <v>15253.636041149344</v>
+        <v>-408525.75488454709</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="1">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C87" s="1">
-        <v>95</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>76</v>
+        <v>99.7</v>
+      </c>
+      <c r="D87" s="1">
+        <v>4</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F87" s="1">
-        <v>0</v>
+      <c r="F87" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J87" s="1">
         <v>0.03</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="5">
-        <v>35.826795972573969</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="M87" s="5">
-        <v>948174.68651553523</v>
+        <v>-1275.9170653907497</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B88" s="1">
         <v>20</v>
@@ -4169,7 +4237,7 @@
         <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>30</v>
@@ -4178,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>33</v>
@@ -4191,15 +4259,15 @@
       </c>
       <c r="K88" s="3"/>
       <c r="L88" s="5">
-        <v>38.384244372990352</v>
+        <v>40.277532780619744</v>
       </c>
       <c r="M88" s="5">
-        <v>992765.27331189706</v>
+        <v>1270065.2672429001</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B89" s="1">
         <v>20</v>
@@ -4208,7 +4276,7 @@
         <v>95</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>30</v>
@@ -4217,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>33</v>
@@ -4230,15 +4298,15 @@
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="5">
-        <v>16.22387393506569</v>
+        <v>46.218013752677265</v>
       </c>
       <c r="M89" s="5">
-        <v>349317.85984591197</v>
+        <v>1623266.8244842745</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B90" s="1">
         <v>20</v>
@@ -4247,7 +4315,7 @@
         <v>95</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>30</v>
@@ -4256,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>33</v>
@@ -4269,15 +4337,15 @@
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="5">
-        <v>9.9346868114573486</v>
+        <v>21.178163873753469</v>
       </c>
       <c r="M90" s="5">
-        <v>137708.53005980485</v>
+        <v>511976.97131695284</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B91" s="1">
         <v>20</v>
@@ -4286,7 +4354,7 @@
         <v>95</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>30</v>
@@ -4295,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>33</v>
@@ -4308,15 +4376,15 @@
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="5">
-        <v>1.6303084636583991</v>
+        <v>11.797775862776479</v>
       </c>
       <c r="M91" s="5">
-        <v>10226.782216024172</v>
+        <v>194919.7751241331</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B92" s="1">
         <v>20</v>
@@ -4325,7 +4393,7 @@
         <v>95</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>30</v>
@@ -4334,28 +4402,28 @@
         <v>0</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J92" s="1">
         <v>0.03</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="5">
-        <v>100.76206604572397</v>
+        <v>1.7933861495408143</v>
       </c>
       <c r="M92" s="5">
-        <v>2447078.7468247251</v>
+        <v>15253.636041149344</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B93" s="1">
         <v>20</v>
@@ -4364,7 +4432,7 @@
         <v>95</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>30</v>
@@ -4373,28 +4441,28 @@
         <v>0</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J93" s="1">
         <v>0.03</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="5">
-        <v>120.21604938271605</v>
+        <v>35.826795972573969</v>
       </c>
       <c r="M93" s="5">
-        <v>2793209.8765432099</v>
+        <v>948174.68651553523</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B94" s="1">
         <v>20</v>
@@ -4403,7 +4471,7 @@
         <v>95</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>30</v>
@@ -4412,28 +4480,28 @@
         <v>0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J94" s="1">
         <v>0.03</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="5">
-        <v>54.961832061068698</v>
+        <v>38.384244372990352</v>
       </c>
       <c r="M94" s="5">
-        <v>1043256.9974554708</v>
+        <v>992765.27331189706</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B95" s="1">
         <v>20</v>
@@ -4442,7 +4510,7 @@
         <v>95</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>30</v>
@@ -4451,28 +4519,28 @@
         <v>0</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J95" s="1">
         <v>0.03</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="5">
-        <v>25.547445255474454</v>
+        <v>16.22387393506569</v>
       </c>
       <c r="M95" s="5">
-        <v>352189.78102189786</v>
+        <v>349317.85984591197</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B96" s="1">
         <v>20</v>
@@ -4481,7 +4549,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>30</v>
@@ -4490,28 +4558,28 @@
         <v>0</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J96" s="1">
         <v>0.03</v>
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="5">
-        <v>2.6712328767123288</v>
+        <v>9.9346868114573486</v>
       </c>
       <c r="M96" s="5">
-        <v>22602.739726027397</v>
+        <v>137708.53005980485</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B97" s="1">
         <v>20</v>
@@ -4520,7 +4588,7 @@
         <v>95</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>30</v>
@@ -4529,28 +4597,28 @@
         <v>0</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J97" s="1">
         <v>0.03</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="5">
-        <v>147.42451154529306</v>
+        <v>1.6303084636583991</v>
       </c>
       <c r="M97" s="5">
-        <v>1962699.8223801064</v>
+        <v>10226.782216024172</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B98" s="1">
         <v>20</v>
@@ -4559,7 +4627,7 @@
         <v>95</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>30</v>
@@ -4568,10 +4636,10 @@
         <v>0</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>42</v>
@@ -4581,15 +4649,15 @@
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="5">
-        <v>170.49441786283893</v>
+        <v>100.76206604572397</v>
       </c>
       <c r="M98" s="5">
-        <v>2185007.9744816585</v>
+        <v>2447078.7468247251</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B99" s="1">
         <v>20</v>
@@ -4598,7 +4666,7 @@
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>30</v>
@@ -4607,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>42</v>
@@ -4620,15 +4688,15 @@
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="5">
-        <v>76.879910213243548</v>
+        <v>120.21604938271605</v>
       </c>
       <c r="M99" s="5">
-        <v>785634.11896745232</v>
+        <v>2793209.8765432099</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B100" s="1">
         <v>20</v>
@@ -4637,7 +4705,7 @@
         <v>95</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>30</v>
@@ -4646,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>42</v>
@@ -4659,15 +4727,15 @@
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="5">
-        <v>38.762214983713356</v>
+        <v>54.961832061068698</v>
       </c>
       <c r="M100" s="5">
-        <v>276872.96416938113</v>
+        <v>1043256.9974554708</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B101" s="1">
         <v>20</v>
@@ -4676,7 +4744,7 @@
         <v>95</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>30</v>
@@ -4685,10 +4753,10 @@
         <v>0</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>42</v>
@@ -4698,24 +4766,24 @@
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="5">
-        <v>4.9142857142857137</v>
+        <v>25.547445255474454</v>
       </c>
       <c r="M101" s="5">
-        <v>20000</v>
+        <v>352189.78102189786</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B102" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1">
-        <v>7</v>
+        <v>95</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>30</v>
@@ -4724,166 +4792,166 @@
         <v>0</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J102" s="1">
         <v>0.03</v>
       </c>
       <c r="K102" s="3"/>
       <c r="L102" s="5">
-        <v>40.571529370259306</v>
+        <v>2.6712328767123288</v>
       </c>
       <c r="M102" s="5">
-        <v>-1275945.1990356911</v>
+        <v>22602.739726027397</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="B103" s="1">
+        <v>20</v>
+      </c>
+      <c r="C103" s="1">
+        <v>95</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>30</v>
+      <c r="F103" s="1">
+        <v>0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J103" s="1">
         <v>0.03</v>
       </c>
       <c r="K103" s="3"/>
       <c r="L103" s="5">
-        <v>33.066546424679672</v>
+        <v>147.42451154529306</v>
       </c>
       <c r="M103" s="5">
-        <v>-1014541.7653026716</v>
+        <v>1962699.8223801064</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="B104" s="1">
+        <v>20</v>
+      </c>
+      <c r="C104" s="1">
+        <v>95</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>30</v>
+      <c r="F104" s="1">
+        <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J104" s="1">
         <v>0.03</v>
       </c>
       <c r="K104" s="3"/>
       <c r="L104" s="5">
-        <v>36.135647661992714</v>
+        <v>170.49441786283893</v>
       </c>
       <c r="M104" s="5">
-        <v>-948174.68651553523</v>
+        <v>2185007.9744816585</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="B105" s="1">
+        <v>20</v>
+      </c>
+      <c r="C105" s="1">
+        <v>95</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>30</v>
+      <c r="F105" s="1">
+        <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J105" s="1">
         <v>0.03</v>
       </c>
       <c r="K105" s="3"/>
       <c r="L105" s="5">
-        <v>28.135048231511252</v>
+        <v>76.879910213243548</v>
       </c>
       <c r="M105" s="5">
-        <v>-735530.54662379425</v>
+        <v>785634.11896745232</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="B106" s="1">
+        <v>20</v>
+      </c>
+      <c r="C106" s="1">
+        <v>95</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>30</v>
+      <c r="F106" s="1">
+        <v>0</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>42</v>
@@ -4893,36 +4961,36 @@
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="5">
-        <v>100.76206604572397</v>
+        <v>38.762214983713356</v>
       </c>
       <c r="M106" s="5">
-        <v>-2455546.1473327689</v>
+        <v>276872.96416938113</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="B107" s="1">
+        <v>20</v>
+      </c>
+      <c r="C107" s="1">
+        <v>95</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>30</v>
+      <c r="F107" s="1">
+        <v>0</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>42</v>
@@ -4932,54 +5000,54 @@
       </c>
       <c r="K107" s="3"/>
       <c r="L107" s="5">
-        <v>88.425925925925924</v>
+        <v>4.9142857142857137</v>
       </c>
       <c r="M107" s="5">
-        <v>-2067901.2345679011</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>7</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>30</v>
+      <c r="F108" s="1">
+        <v>0</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J108" s="1">
         <v>0.03</v>
       </c>
       <c r="K108" s="3"/>
       <c r="L108" s="5">
-        <v>147.42451154529306</v>
+        <v>40.571529370259306</v>
       </c>
       <c r="M108" s="5">
-        <v>-1962699.8223801067</v>
+        <v>-1275945.1990356911</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>30</v>
@@ -4988,7 +5056,7 @@
         <v>30</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>30</v>
@@ -5000,19 +5068,253 @@
         <v>34</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J109" s="1">
         <v>0.03</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" s="5">
+        <v>33.066546424679672</v>
+      </c>
+      <c r="M109" s="5">
+        <v>-1014541.7653026716</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K110" s="3"/>
+      <c r="L110" s="5">
+        <v>36.135647661992714</v>
+      </c>
+      <c r="M110" s="5">
+        <v>-948174.68651553523</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K111" s="3"/>
+      <c r="L111" s="5">
+        <v>28.135048231511252</v>
+      </c>
+      <c r="M111" s="5">
+        <v>-735530.54662379425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K112" s="3"/>
+      <c r="L112" s="5">
+        <v>100.76206604572397</v>
+      </c>
+      <c r="M112" s="5">
+        <v>-2455546.1473327689</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K113" s="3"/>
+      <c r="L113" s="5">
+        <v>88.425925925925924</v>
+      </c>
+      <c r="M113" s="5">
+        <v>-2067901.2345679011</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K114" s="3"/>
+      <c r="L114" s="5">
+        <v>147.42451154529306</v>
+      </c>
+      <c r="M114" s="5">
+        <v>-1962699.8223801067</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K115" s="3"/>
+      <c r="L115" s="5">
         <v>123.76395534290272</v>
       </c>
-      <c r="M109" s="5">
+      <c r="M115" s="5">
         <v>-1610845.2950558213</v>
       </c>
     </row>

--- a/Datasets/tobacco_data_v2.xlsx
+++ b/Datasets/tobacco_data_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjun\OneDrive\Desktop\Documents\ANU\COMP4550\vaping_effect\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A98D4E-D28A-4B12-9487-8B8F75B53619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFE0AB-E16C-4494-BCB9-0E6D8F4A52B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6049EA67-DD7E-451A-8247-36CF987127C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6049EA67-DD7E-451A-8247-36CF987127C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="73">
   <si>
     <t>Intervention descriptor (data entry)</t>
   </si>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6FBDBE-EF5D-4EFE-AAC8-A0D62986DC39}">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -981,8 +981,8 @@
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
+      <c r="D5" s="1">
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -1176,8 +1176,8 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
+      <c r="D10" s="1">
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
@@ -1371,8 +1371,8 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
+      <c r="D15" s="1">
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>30</v>
@@ -1566,8 +1566,8 @@
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
+      <c r="D20" s="1">
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
@@ -1605,8 +1605,8 @@
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
+      <c r="D21" s="1">
+        <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>30</v>
@@ -1644,8 +1644,8 @@
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>36</v>
+      <c r="D22" s="1">
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>30</v>
@@ -3027,8 +3027,8 @@
       <c r="C57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>57</v>
+      <c r="D57" s="1">
+        <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>58</v>
@@ -3222,8 +3222,8 @@
       <c r="C62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>57</v>
+      <c r="D62" s="1">
+        <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>58</v>
@@ -3417,8 +3417,8 @@
       <c r="C67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>61</v>
+      <c r="D67" s="1">
+        <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>58</v>
@@ -3612,8 +3612,8 @@
       <c r="C72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>61</v>
+      <c r="D72" s="1">
+        <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>58</v>
@@ -4002,8 +4002,8 @@
       <c r="C82" s="1">
         <v>99.7</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>64</v>
+      <c r="D82" s="1">
+        <v>0.8</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>30</v>
@@ -4314,8 +4314,8 @@
       <c r="C90" s="1">
         <v>95</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>29</v>
+      <c r="D90" s="1">
+        <v>7</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>30</v>
@@ -4509,8 +4509,8 @@
       <c r="C95" s="1">
         <v>95</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>29</v>
+      <c r="D95" s="1">
+        <v>7</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>30</v>
@@ -4704,8 +4704,8 @@
       <c r="C100" s="1">
         <v>95</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>41</v>
+      <c r="D100" s="1">
+        <v>18</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>30</v>
@@ -4899,8 +4899,8 @@
       <c r="C105" s="1">
         <v>95</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>41</v>
+      <c r="D105" s="1">
+        <v>18</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>30</v>
@@ -5094,8 +5094,8 @@
       <c r="C110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>29</v>
+      <c r="D110" s="1">
+        <v>7</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>30</v>

--- a/Datasets/tobacco_data_v2.xlsx
+++ b/Datasets/tobacco_data_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjun\OneDrive\Desktop\Documents\ANU\COMP4550\vaping_effect\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFE0AB-E16C-4494-BCB9-0E6D8F4A52B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A92F3-A830-4DEC-9F84-624E8E5F4C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6049EA67-DD7E-451A-8247-36CF987127C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6049EA67-DD7E-451A-8247-36CF987127C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6FBDBE-EF5D-4EFE-AAC8-A0D62986DC39}">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Datasets/tobacco_data_v2.xlsx
+++ b/Datasets/tobacco_data_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjun\OneDrive\Desktop\Documents\ANU\COMP4550\vaping_effect\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb178739a57d440d/Desktop/Documents/ANU/COMP4550/vaping_effect/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A92F3-A830-4DEC-9F84-624E8E5F4C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3DA57959-4A54-41A2-A514-5F3EE1D0F8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF9B906E-CCC8-4ABE-988C-2F83B388C3FB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6049EA67-DD7E-451A-8247-36CF987127C2}"/>
   </bookViews>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6FBDBE-EF5D-4EFE-AAC8-A0D62986DC39}">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -796,7 +796,7 @@
     <col min="6" max="6" width="22.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.7265625" style="2"/>
     <col min="9" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.54296875" style="4" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="32.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="56.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.1796875" bestFit="1" customWidth="1"/>
